--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns1/module1.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns1/module1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\EPBDS-8247_Conditions_Actions_Returns\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="49">
   <si>
     <t>Integer x1</t>
   </si>
@@ -174,6 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -206,7 +207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.39997558519241921" rgb="4F81BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +308,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -825,15 +826,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="17.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1409,12 +1410,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="50.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.85546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="15.5703125" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="16.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1552,7 +1553,7 @@
     </row>
     <row r="9" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="36" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="37" t="s">
